--- a/dataFiles/onboardingCancer.xlsx
+++ b/dataFiles/onboardingCancer.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="194">
   <si>
     <t>Field</t>
   </si>
@@ -135,9 +135,6 @@
     <t>ContinueButton</t>
   </si>
   <si>
-    <t>MentalHealthTextInAdobe</t>
-  </si>
-  <si>
     <t>nameFieldInAdobe</t>
   </si>
   <si>
@@ -336,9 +333,6 @@
     <t>Welcome to Carepath Onboarding!</t>
   </si>
   <si>
-    <t>Your request to access the  Mental Health  program is approved.</t>
-  </si>
-  <si>
     <t>We collect personal information only for medical purposes required to determine your well-being. Based on that, our clinicians can provide you with faster and better support.,Checklist,Onboarding,Section 1 Personal information,Contact Information,Emergency contact and information,Address Information,Health Card Information,Employment Information,Section 2 Consent form,Terms of Use,Consent Form,Section 3 Health assessment,PHQ-9,GAD-7,Finishing profile,Finishing profile,Required Information</t>
   </si>
   <si>
@@ -420,9 +414,6 @@
     <t>CONTINUE</t>
   </si>
   <si>
-    <t>Mental Health Navigation Program Consent for Service</t>
-  </si>
-  <si>
     <t>Before proceeding with the Mental Health program, we kindly ask you to fill this assessment. Brief questionnaires such as the Patient Health Questionnaire (PHQ-9) or General Anxiety Disorder Scale (GAD7) help us to understand if you are experiencing depression or anxiety. They can also serve as a symptom severity tracker to help assess the effectiveness of your work with the app and your counsellor, if you choose to connect with one.</t>
   </si>
   <si>
@@ -489,9 +480,6 @@
     <t>29032000</t>
   </si>
   <si>
-    <t xml:space="preserve">Date of birth (DD-MM-YYYY) </t>
-  </si>
-  <si>
     <t>employee</t>
   </si>
   <si>
@@ -516,13 +504,104 @@
     <t>Shortness of Breath</t>
   </si>
   <si>
-    <t>Writedata1</t>
-  </si>
-  <si>
     <t>prabhaebcf3891mailinator.com</t>
   </si>
   <si>
-    <t>prabhafeb540@mailinator.com</t>
+    <t>Test Description</t>
+  </si>
+  <si>
+    <t>CancerTextInAdobe</t>
+  </si>
+  <si>
+    <t>Selecting 0 as an Option for all the questions in the Health Assessment of Cancer Program Onboarding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your request to access the Cancer program is approved.
+</t>
+  </si>
+  <si>
+    <t>Cancer Navigation Program Consent for Service</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Date of birth (DD-MM-YYYY)</t>
+  </si>
+  <si>
+    <t>Testdata2</t>
+  </si>
+  <si>
+    <t>Selecting 1 as an Option for all the questions in the Health Assessment of Cancer Program Onboarding.</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Testdata3</t>
+  </si>
+  <si>
+    <t>Selecting 2 as an Option for all the questions in the Health Assessment of Cancer Program Onboarding.</t>
+  </si>
+  <si>
+    <t>Testdata4</t>
+  </si>
+  <si>
+    <t>Selecting 3 as an Option for all the questions in the Health Assessment of Cancer Program Onboarding.</t>
+  </si>
+  <si>
+    <t>Testdata5</t>
+  </si>
+  <si>
+    <t>Selecting 4 as an Option for all the questions in the Health Assessment of Cancer Program Onboarding.</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Testdata6</t>
+  </si>
+  <si>
+    <t>Selecting 5 as an Option for all the questions in the Health Assessment of Cancer Program Onboarding.</t>
+  </si>
+  <si>
+    <t>Testdata7</t>
+  </si>
+  <si>
+    <t>Selecting 6 as an Option for all the questions in the Health Assessment of Cancer Program Onboarding.</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Testdata8</t>
+  </si>
+  <si>
+    <t>Selecting 7 as an Option for all the questions in the Health Assessment of Cancer Program Onboarding.</t>
+  </si>
+  <si>
+    <t>Writedata8</t>
+  </si>
+  <si>
+    <t>demo0003@mailinator.com</t>
+  </si>
+  <si>
+    <t>Testdata9</t>
+  </si>
+  <si>
+    <t>Selecting 8 as an Option for all the questions in the Health Assessment of Cancer Program Onboarding.</t>
+  </si>
+  <si>
+    <t>Testdata10</t>
+  </si>
+  <si>
+    <t>Selecting 9 as an Option for all the questions in the Health Assessment of Cancer Program Onboarding.</t>
+  </si>
+  <si>
+    <t>Selecting 10 as an Option for all the questions in the Health Assessment of Cancer Program Onboarding.</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -545,7 +624,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,6 +634,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -625,9 +710,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -635,6 +717,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,869 +1015,4049 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DA3"/>
+  <dimension ref="A1:DC13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CY5" sqref="CY5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="45.5703125" customWidth="1"/>
-    <col min="43" max="43" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="76.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="54.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="29" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="69" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="15" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="9" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="10" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="87" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="88" max="92" width="18" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="94" max="96" width="18" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="11" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="76.42578125" customWidth="1"/>
+    <col min="44" max="44" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="76.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11" customWidth="1"/>
+    <col min="47" max="47" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="29" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="26" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="74" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="18" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="88" width="9" bestFit="1" customWidth="1"/>
+    <col min="89" max="92" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="95" max="97" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="11" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:107" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BH1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BI1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BK1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BL1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BM1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BN1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BO1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BP1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BQ1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BS1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BT1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BU1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BV1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BW1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BX1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BY1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CK1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CN1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CO1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CP1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CQ1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CR1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CS1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DC1" s="1"/>
+    </row>
+    <row r="2" spans="1:107" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="BX1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BY1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BZ1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:105" s="10" customFormat="1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="P2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="6" t="s">
+      <c r="X2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO2" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="AN2" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AT2" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AV2" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="AT2" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="AV2" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AW2" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AX2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AZ2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BA2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BB2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BF2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BG2" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="AY2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="BH2" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="BA2" s="6" t="s">
+      <c r="BI2" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="BB2" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="BC2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD2" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="BE2" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="BF2" s="7" t="s">
+      <c r="BJ2" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="BG2" s="7" t="s">
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="BH2" s="7" t="s">
+      <c r="BN2" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="BI2" s="7" t="s">
+      <c r="BO2" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="BJ2" s="7"/>
-      <c r="BK2" s="6"/>
-      <c r="BL2" s="7" t="s">
+      <c r="BP2" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ2" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="BM2" s="7" t="s">
+      <c r="BR2" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS2" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT2" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="BN2" s="7" t="s">
+      <c r="BU2" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="BO2" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="BP2" s="7" t="s">
+      <c r="BV2" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="BQ2" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="BR2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="BS2" s="7" t="s">
+      <c r="BW2" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="BX2" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="BT2" s="7" t="s">
+      <c r="BY2" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="BU2" s="7" t="s">
+      <c r="BZ2" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="BV2" s="7" t="s">
+      <c r="CA2" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="BW2" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="BX2" s="7" t="s">
+      <c r="CB2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="CC2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="CD2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="CE2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="CF2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="CG2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="CH2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="CI2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="CJ2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="CK2" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="BY2" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="BZ2" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="CA2" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="CB2" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="CC2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="CD2" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CE2" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="CF2" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="CG2" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="CH2" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="CI2" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="CJ2" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="CK2" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="CL2" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="CM2" s="7" t="s">
         <v>50</v>
       </c>
       <c r="CN2" s="7" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="CO2" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="CP2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CQ2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="CR2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="CQ2" s="7" t="s">
+      <c r="CS2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="CR2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="CS2" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="CT2" s="7" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="CU2" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="CV2" s="7" t="s">
         <v>50</v>
       </c>
       <c r="CW2" s="7" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="CX2" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="CY2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CZ2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="DA2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="CZ2" s="9" t="s">
+      <c r="DB2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="DA2" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="DC2" s="7"/>
     </row>
-    <row r="3" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:107" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="12"/>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="12"/>
-      <c r="AX3" s="12"/>
-      <c r="AY3" s="12"/>
-      <c r="AZ3" s="12"/>
-      <c r="BA3" s="12"/>
-      <c r="BB3" s="12"/>
-      <c r="BC3" s="12"/>
-      <c r="BD3" s="12"/>
-      <c r="BE3" s="12"/>
-      <c r="BF3" s="12"/>
-      <c r="BG3" s="12"/>
-      <c r="BH3" s="12"/>
-      <c r="BI3" s="12"/>
-      <c r="BJ3" s="13" t="s">
+      <c r="E3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN3" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="BK3" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="BL3" s="13" t="s">
+      <c r="AO3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AY3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AZ3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="BB3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="BC3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="BD3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="BE3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG3" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH3" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI3" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="BJ3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK3" s="18"/>
+      <c r="BL3" s="18"/>
+      <c r="BM3" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN3" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO3" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BP3" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ3" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="BM3" s="13" t="s">
+      <c r="BR3" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS3" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT3" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="BN3" s="13" t="s">
+      <c r="BU3" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="BO3" s="13" t="s">
+      <c r="BV3" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="BW3" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="BX3" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="BY3" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="BZ3" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA3" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="CC3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="CD3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="CE3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="CF3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="CG3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="CH3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="CI3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="CJ3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="CK3" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="CL3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CM3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="CN3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="CO3" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CP3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CQ3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="CR3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="CS3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="CT3" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="CU3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CV3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="CW3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="CX3" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CY3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CZ3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="DA3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="DB3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="DC3" s="7"/>
+    </row>
+    <row r="4" spans="1:107" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN4" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU4" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AZ4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="BB4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="BD4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="BE4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="BF4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG4" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH4" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI4" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="BJ4" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK4" s="18"/>
+      <c r="BL4" s="18"/>
+      <c r="BM4" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN4" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO4" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BP4" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ4" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR4" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS4" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT4" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU4" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="BP3" s="13" t="s">
+      <c r="BV4" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="BQ3" s="13" t="s">
+      <c r="BW4" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="BX4" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="BY4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="BZ4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="CD4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="CF4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="CG4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="CH4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="CI4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="CJ4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="CK4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="CL4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CM4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="CN4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="CO4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CP4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CQ4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="CR4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="CS4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="CT4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="CU4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CV4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="CW4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="CX4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CY4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CZ4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="DA4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="DB4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="DC4" s="7"/>
+    </row>
+    <row r="5" spans="1:107" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN5" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ5" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT5" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU5" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV5" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW5" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BA5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BE5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG5" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH5" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI5" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="BJ5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK5" s="18"/>
+      <c r="BL5" s="18"/>
+      <c r="BM5" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN5" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO5" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BP5" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ5" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR5" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS5" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT5" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU5" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="BV5" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="BR3" s="12"/>
-      <c r="BS3" s="12"/>
-      <c r="BT3" s="12"/>
-      <c r="BU3" s="12"/>
-      <c r="BV3" s="12"/>
-      <c r="BW3" s="12"/>
-      <c r="BX3" s="12"/>
-      <c r="BY3" s="12"/>
-      <c r="BZ3" s="12"/>
-      <c r="CA3" s="14"/>
-      <c r="CB3" s="12"/>
-      <c r="CC3" s="12"/>
-      <c r="CD3" s="12"/>
-      <c r="CE3" s="12"/>
-      <c r="CF3" s="12"/>
-      <c r="CG3" s="12"/>
-      <c r="CH3" s="12"/>
-      <c r="CI3" s="12"/>
-      <c r="CJ3" s="12"/>
-      <c r="CK3" s="12"/>
-      <c r="CL3" s="12"/>
-      <c r="CM3" s="12"/>
-      <c r="CN3" s="12"/>
-      <c r="CO3" s="12"/>
-      <c r="CP3" s="12"/>
-      <c r="CQ3" s="12"/>
-      <c r="CR3" s="12"/>
-      <c r="CS3" s="12"/>
-      <c r="CT3" s="12"/>
-      <c r="CU3" s="12"/>
-      <c r="CV3" s="12"/>
-      <c r="CW3" s="12"/>
-      <c r="CX3" s="12"/>
-      <c r="CY3" s="12"/>
-      <c r="CZ3" s="12"/>
-      <c r="DA3" s="12"/>
+      <c r="BW5" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="BX5" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="BY5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="BZ5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CC5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CD5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CE5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CF5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CG5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CH5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CI5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CJ5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CK5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="CL5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CM5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="CN5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="CO5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CP5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CQ5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="CR5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="CS5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="CT5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="CU5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CV5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="CW5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="CX5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CY5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CZ5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="DA5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="DB5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="DC5" s="7"/>
+    </row>
+    <row r="6" spans="1:107" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK6" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM6" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO6" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP6" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ6" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR6" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS6" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT6" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW6" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AY6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AZ6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="BA6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="BB6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="BC6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="BD6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="BE6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="BF6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="BG6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH6" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI6" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="BJ6" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK6" s="18"/>
+      <c r="BL6" s="18"/>
+      <c r="BM6" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN6" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO6" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BP6" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ6" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR6" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS6" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT6" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU6" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="BV6" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="BW6" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="BX6" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="BY6" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="BZ6" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="CC6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="CD6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="CE6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="CF6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="CG6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="CH6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="CI6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="CJ6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="CK6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="CL6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CM6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="CN6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="CO6" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CP6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CQ6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="CR6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="CS6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="CT6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="CU6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CV6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="CW6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="CX6" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CY6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CZ6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="DA6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="DB6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="DC6" s="7"/>
+    </row>
+    <row r="7" spans="1:107" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN7" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO7" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP7" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ7" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS7" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT7" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV7" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW7" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BF7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG7" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH7" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI7" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="BJ7" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK7" s="18"/>
+      <c r="BL7" s="18"/>
+      <c r="BM7" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN7" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO7" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BP7" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ7" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR7" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS7" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT7" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU7" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="BV7" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="BW7" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="BX7" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="BY7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="BZ7" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="CC7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="CD7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="CE7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="CF7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="CG7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="CH7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="CI7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="CK7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="CL7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CM7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="CN7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="CO7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CP7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CQ7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="CR7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="CS7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="CT7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="CU7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CV7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="CW7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="CX7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CY7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CZ7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="DA7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="DB7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="DC7" s="7"/>
+    </row>
+    <row r="8" spans="1:107" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ8" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM8" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ8" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS8" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU8" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV8" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG8" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH8" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI8" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="BJ8" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK8" s="18"/>
+      <c r="BL8" s="18"/>
+      <c r="BM8" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN8" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO8" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BP8" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ8" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR8" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS8" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT8" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU8" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="BV8" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="BW8" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="BX8" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="BY8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="BZ8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="CC8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="CD8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="CE8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="CF8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="CG8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="CH8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="CI8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="CJ8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="CK8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="CL8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CM8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="CN8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="CO8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CP8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CQ8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="CR8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="CS8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="CT8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="CU8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CV8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="CW8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="CX8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CY8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CZ8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="DA8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="DB8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="DC8" s="7"/>
+    </row>
+    <row r="9" spans="1:107" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA9" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE9" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK9" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN9" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO9" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP9" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ9" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR9" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS9" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT9" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV9" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW9" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BA9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BB9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BE9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG9" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH9" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI9" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="BJ9" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK9" s="18"/>
+      <c r="BL9" s="18"/>
+      <c r="BM9" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN9" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO9" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BP9" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ9" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR9" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS9" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT9" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU9" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="BV9" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="BW9" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="BX9" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="BY9" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="BZ9" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA9" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="CC9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="CD9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="CE9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="CF9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="CG9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="CH9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="CI9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="CJ9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="CK9" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="CL9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CM9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="CN9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="CO9" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CP9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CQ9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="CR9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="CS9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="CT9" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="CU9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CV9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="CW9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="CX9" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CY9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CZ9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="DA9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="DB9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="DC9" s="7"/>
+    </row>
+    <row r="10" spans="1:107" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="11"/>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="11"/>
+      <c r="BB10" s="11"/>
+      <c r="BC10" s="11"/>
+      <c r="BD10" s="11"/>
+      <c r="BE10" s="11"/>
+      <c r="BF10" s="11"/>
+      <c r="BG10" s="11"/>
+      <c r="BH10" s="11"/>
+      <c r="BI10" s="11"/>
+      <c r="BJ10" s="11"/>
+      <c r="BK10" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL10" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="BM10" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO10" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="BP10" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ10" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR10" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS10" s="11"/>
+      <c r="BT10" s="11"/>
+      <c r="BU10" s="11"/>
+      <c r="BV10" s="11"/>
+      <c r="BW10" s="11"/>
+      <c r="BX10" s="11"/>
+      <c r="BY10" s="11"/>
+      <c r="BZ10" s="11"/>
+      <c r="CA10" s="11"/>
+      <c r="CB10" s="11"/>
+      <c r="CC10" s="11"/>
+      <c r="CD10" s="11"/>
+      <c r="CE10" s="11"/>
+      <c r="CF10" s="11"/>
+      <c r="CG10" s="11"/>
+      <c r="CH10" s="11"/>
+      <c r="CI10" s="11"/>
+      <c r="CJ10" s="11"/>
+      <c r="CK10" s="11"/>
+      <c r="CL10" s="11"/>
+      <c r="CM10" s="11"/>
+      <c r="CN10" s="11"/>
+      <c r="CO10" s="11"/>
+      <c r="CP10" s="11"/>
+      <c r="CQ10" s="11"/>
+      <c r="CR10" s="11"/>
+      <c r="CS10" s="11"/>
+      <c r="CT10" s="13"/>
+      <c r="CU10" s="11"/>
+      <c r="CV10" s="11"/>
+      <c r="CW10" s="11"/>
+      <c r="CX10" s="11"/>
+      <c r="CY10" s="11"/>
+      <c r="CZ10" s="11"/>
+      <c r="DA10" s="11"/>
+      <c r="DB10" s="11"/>
+      <c r="DC10" s="11"/>
+    </row>
+    <row r="11" spans="1:107" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE11" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM11" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN11" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ11" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR11" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU11" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV11" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW11" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AY11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AZ11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="BB11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="BC11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="BD11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="BE11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG11" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH11" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI11" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="BJ11" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK11" s="18"/>
+      <c r="BL11" s="18"/>
+      <c r="BM11" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN11" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO11" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BP11" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ11" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR11" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS11" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT11" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU11" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="BV11" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="BW11" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="BX11" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="BY11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="BZ11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="CC11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="CD11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="CE11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="CF11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="CG11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="CH11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="CI11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="CJ11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="CK11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="CL11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CM11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="CN11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="CO11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CP11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CQ11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="CR11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="CS11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="CT11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="CU11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CV11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="CW11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="CX11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CY11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CZ11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="DA11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="DB11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="DC11" s="7"/>
+    </row>
+    <row r="12" spans="1:107" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA12" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH12" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ12" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK12" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM12" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN12" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO12" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP12" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ12" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR12" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS12" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT12" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU12" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV12" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW12" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="BB12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="BC12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="BD12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="BG12" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH12" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI12" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="BJ12" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK12" s="18"/>
+      <c r="BL12" s="18"/>
+      <c r="BM12" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN12" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO12" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BP12" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ12" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR12" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS12" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT12" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU12" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="BV12" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="BW12" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="BX12" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="BY12" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="BZ12" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA12" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="CC12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="CD12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="CE12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="CF12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="CG12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="CH12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="CI12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="CJ12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="CK12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="CL12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CM12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="CN12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="CO12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CP12" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CQ12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="CR12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="CS12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="CT12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="CU12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CV12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="CW12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="CX12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CY12" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CZ12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="DA12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="DB12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="DC12" s="7"/>
+    </row>
+    <row r="13" spans="1:107" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE13" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ13" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK13" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL13" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN13" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ13" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR13" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT13" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU13" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV13" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW13" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AY13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="BA13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="BB13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="BD13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="BE13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="BF13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="BG13" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH13" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI13" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="BJ13" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK13" s="18"/>
+      <c r="BL13" s="18"/>
+      <c r="BM13" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN13" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO13" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BP13" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ13" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR13" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS13" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT13" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU13" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="BV13" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="BW13" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="BX13" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="BY13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="BZ13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="CC13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="CD13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="CE13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="CF13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="CG13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="CH13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="CI13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="CJ13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="CK13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="CL13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CM13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="CN13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="CO13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CP13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CQ13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="CR13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="CS13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="CT13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="CU13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CV13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="CW13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="CX13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CY13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CZ13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="DA13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="DB13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="DC13" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2:CI2">
-      <formula1>"  0,1,2,3,4,5,6,7,8,9,10"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BG2:BG9 BG11:BG13">
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2:CA9 CA11:CA13">
       <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2:BF9 AX11:BF13 CB2:CJ9 CB11:CJ13">
+      <formula1>"0,1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
